--- a/ProyectoFinal/Datos.xlsx
+++ b/ProyectoFinal/Datos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\NetBeansProjects\GITHUB\proyecto_final_Estructura_de_datos_2022\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F02C4F2-98BC-4367-9DD0-D12D169DF531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA7776-B645-44E2-B717-D26808B2DF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97392C37-2B9F-4F91-B69C-305730628299}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{97392C37-2B9F-4F91-B69C-305730628299}"/>
   </bookViews>
   <sheets>
     <sheet name="vehiculos" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Toyota</t>
   </si>
@@ -59,21 +60,131 @@
     <t>celeste</t>
   </si>
   <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>usado</t>
-  </si>
-  <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Valery</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Noguera</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Fallas</t>
+  </si>
+  <si>
+    <t>valeri.com</t>
+  </si>
+  <si>
+    <t>roberto.com</t>
+  </si>
+  <si>
+    <t>andres.com</t>
+  </si>
+  <si>
+    <t>steven.com</t>
+  </si>
+  <si>
+    <t>Bronce</t>
+  </si>
+  <si>
+    <t>Plata</t>
+  </si>
+  <si>
+    <t>Oro</t>
+  </si>
+  <si>
+    <t>Platino</t>
+  </si>
+  <si>
+    <t>01-03-2001</t>
+  </si>
+  <si>
+    <t>01-03-2002</t>
+  </si>
+  <si>
+    <t>01-03-2003</t>
+  </si>
+  <si>
+    <t>01-03-2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,8 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A6305B-9236-4DF6-8021-2AA61828218D}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>708017</v>
+        <v>708080</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -492,58 +605,378 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>865307</v>
+        <v>860505</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1988</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>100000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>506060</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>1600</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>150000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>252020</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>2003</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>1600</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>125000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>125000</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>405060</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>1400</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>275000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>908010</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1600</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>265000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B2EA42-9267-4BE5-8697-6390A450E6E2}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22222222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>44444444</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProyectoFinal/Datos.xlsx
+++ b/ProyectoFinal/Datos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\NetBeansProjects\GITHUB\proyecto_final_Estructura_de_datos_2022\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA7776-B645-44E2-B717-D26808B2DF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451A22D-F90D-48AE-B17F-0EDB42C9A609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{97392C37-2B9F-4F91-B69C-305730628299}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{97392C37-2B9F-4F91-B69C-305730628299}"/>
   </bookViews>
   <sheets>
     <sheet name="vehiculos" sheetId="1" r:id="rId1"/>
     <sheet name="Clientes" sheetId="2" r:id="rId2"/>
+    <sheet name="Solicitudes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>Toyota</t>
   </si>
@@ -169,6 +170,12 @@
   </si>
   <si>
     <t>01-03-2000</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>01-12-2022</t>
   </si>
 </sst>
 </file>
@@ -877,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B2EA42-9267-4BE5-8697-6390A450E6E2}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,4 +986,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E622A8-5F90-485E-96F1-F7A534C98303}">
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2022121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1">
+        <v>22222222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>2008</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProyectoFinal/Datos.xlsx
+++ b/ProyectoFinal/Datos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\NetBeansProjects\GITHUB\proyecto_final_Estructura_de_datos_2022\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451A22D-F90D-48AE-B17F-0EDB42C9A609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C751C1-D259-4986-A395-5365B18721D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{97392C37-2B9F-4F91-B69C-305730628299}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="745" activeTab="3" xr2:uid="{97392C37-2B9F-4F91-B69C-305730628299}"/>
   </bookViews>
   <sheets>
     <sheet name="vehiculos" sheetId="1" r:id="rId1"/>
     <sheet name="Clientes" sheetId="2" r:id="rId2"/>
     <sheet name="Solicitudes" sheetId="3" r:id="rId3"/>
+    <sheet name="Alquiler" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>Toyota</t>
   </si>
@@ -176,6 +177,9 @@
   </si>
   <si>
     <t>01-12-2022</t>
+  </si>
+  <si>
+    <t>05-12-2022</t>
   </si>
 </sst>
 </file>
@@ -540,7 +544,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +889,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E622A8-5F90-485E-96F1-F7A534C98303}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,4 +1074,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAAE86E-3BC4-46CD-AE0F-D2AF4BAF5677}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2022121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1">
+        <v>506060</v>
+      </c>
+      <c r="D1">
+        <v>22222222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1">
+        <v>150000</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <f>300000</f>
+        <v>300000</v>
+      </c>
+      <c r="J1">
+        <v>78000</v>
+      </c>
+      <c r="K1">
+        <v>678000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>